--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EE37BD-7D58-4177-8169-B36E1724CD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9163F64-076F-47A4-BF8D-D73C1DA0868B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="139">
   <si>
     <t>Informaţiile vor fi preluate din fişiere text.</t>
   </si>
@@ -393,42 +393,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">#TCs </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>passed</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>[de executat in testarea de regresie]</t>
-    </r>
-  </si>
-  <si>
     <t>nu</t>
   </si>
   <si>
@@ -474,36 +438,15 @@
     <t>4,5</t>
   </si>
   <si>
-    <t>1-2-3T-4F-6-3T-4T-5-11</t>
-  </si>
-  <si>
-    <t>1-2-3T-4T-5-11</t>
-  </si>
-  <si>
     <t>F02_P04</t>
   </si>
   <si>
     <t>F02_P05</t>
   </si>
   <si>
-    <t>1-2-3F-7T-8-9-11</t>
-  </si>
-  <si>
-    <t>1-2-3F-7F-10-11</t>
-  </si>
-  <si>
-    <t>1-2-3T-4F-6-3F-7T-8-9-11</t>
-  </si>
-  <si>
     <t>F02_P06</t>
   </si>
   <si>
-    <t>1-2-3T-4F-6-3F-7F-10-11</t>
-  </si>
-  <si>
-    <t>Drumul cu loop le contine pe celelalte</t>
-  </si>
-  <si>
     <t>F02_TC03</t>
   </si>
   <si>
@@ -525,21 +468,9 @@
     <t>Product(name="product1")</t>
   </si>
   <si>
-    <t>1,2,3,4,6,3,7,10,11</t>
-  </si>
-  <si>
     <t>p in Products</t>
   </si>
   <si>
-    <t>name/id match</t>
-  </si>
-  <si>
-    <t>isFound == false</t>
-  </si>
-  <si>
-    <t>1,2,3,7,8,9,11</t>
-  </si>
-  <si>
     <t>P03</t>
   </si>
   <si>
@@ -552,18 +483,12 @@
     <t>P06</t>
   </si>
   <si>
-    <t>1,2,3,4,6,3,4,5,11</t>
-  </si>
-  <si>
     <t>Null</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>P5 nu se poate atinge prin felul I ncare e scris codul</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
@@ -571,13 +496,121 @@
   </si>
   <si>
     <t>Eram fixuit inainte a trebuit sa revenim la codul cu problema pentru tema</t>
+  </si>
+  <si>
+    <t>F02_P07</t>
+  </si>
+  <si>
+    <t>F02_P08</t>
+  </si>
+  <si>
+    <t>F02_P09</t>
+  </si>
+  <si>
+    <t>1-2-3T-4F-6F-8-3T-4F-6T-7-13</t>
+  </si>
+  <si>
+    <t>1-2-3T-4F-6T-7-13</t>
+  </si>
+  <si>
+    <t>1-2-3T-4T-5-13</t>
+  </si>
+  <si>
+    <t>1-2-3F-9T-10-11-13</t>
+  </si>
+  <si>
+    <t>1-2-3F-9F-12-13</t>
+  </si>
+  <si>
+    <t>1-2-3T-4F-6F-8-3T-4T-5-13</t>
+  </si>
+  <si>
+    <t>name contains</t>
+  </si>
+  <si>
+    <t>id equals</t>
+  </si>
+  <si>
+    <t>isFound==false</t>
+  </si>
+  <si>
+    <t>ERR</t>
+  </si>
+  <si>
+    <t>1-2-3T-4F-6F-8-3F-9T-10-11-13</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[P1,P2,P3]</t>
+  </si>
+  <si>
+    <t>searchItem</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>products - lista entitati produs</t>
+  </si>
+  <si>
+    <t>P2-produs cu nume Produs 2</t>
+  </si>
+  <si>
+    <t>P3-produs cu numeProdus 3</t>
+  </si>
+  <si>
+    <t>P1-produs cu nume Produs 1</t>
+  </si>
+  <si>
+    <t>"Product 1"</t>
+  </si>
+  <si>
+    <t>Product(name="Product 1")</t>
+  </si>
+  <si>
+    <t>"1"</t>
+  </si>
+  <si>
+    <t>Product(name="Product")</t>
+  </si>
+  <si>
+    <t>"Product 2"</t>
+  </si>
+  <si>
+    <t>Product(name="Product 2")</t>
+  </si>
+  <si>
+    <t>"2"</t>
+  </si>
+  <si>
+    <t>P7 nu se poate atinge prin felul I ncare e scris codul</t>
+  </si>
+  <si>
+    <t>F02_TC05</t>
+  </si>
+  <si>
+    <t>F02_TC06</t>
+  </si>
+  <si>
+    <t>F02_TC07</t>
+  </si>
+  <si>
+    <t>Product(id=1)</t>
+  </si>
+  <si>
+    <t>Product(id=2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,13 +664,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -786,7 +812,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1245,11 +1271,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1261,41 +1298,38 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1304,7 +1338,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -1329,8 +1362,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1343,77 +1393,140 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1436,12 +1549,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1457,9 +1564,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1467,82 +1571,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2074,69 +2132,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>510117</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>45507</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>99484</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>56091</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Oval 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53B41B30-0137-8E4E-AEF2-960439B26894}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20198292" y="7284507"/>
-          <a:ext cx="770467" cy="772584"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="2800" b="1"/>
-            <a:t>6</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>564093</xdr:colOff>
       <xdr:row>30</xdr:row>
@@ -2191,7 +2186,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="2400" b="1"/>
-            <a:t>7</a:t>
+            <a:t>9</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2254,7 +2249,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="2800" b="1"/>
-            <a:t>8</a:t>
+            <a:t>10</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2317,7 +2312,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="2800" b="1"/>
-            <a:t>9</a:t>
+            <a:t>11</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2423,7 +2418,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="2800" b="1"/>
-            <a:t>10</a:t>
+            <a:t>12</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2486,7 +2481,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="2800" b="1"/>
-            <a:t>11</a:t>
+            <a:t>13</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2791,15 +2786,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>400414</xdr:colOff>
+      <xdr:colOff>400415</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>120651</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
+      <xdr:colOff>364555</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>45506</xdr:rowOff>
+      <xdr:rowOff>65118</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2813,13 +2808,13 @@
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
           <a:stCxn id="5" idx="2"/>
-          <a:endCxn id="10" idx="0"/>
+          <a:endCxn id="6" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="19887855" y="6588835"/>
-          <a:ext cx="305855" cy="1085487"/>
+          <a:off x="20553945" y="6135097"/>
+          <a:ext cx="303055" cy="1183340"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3145,13 +3140,13 @@
       <xdr:col>30</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>171191</xdr:rowOff>
+      <xdr:rowOff>165588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>99484</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>50799</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>253501</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>33367</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3164,18 +3159,18 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="10" idx="6"/>
+          <a:stCxn id="43" idx="6"/>
           <a:endCxn id="4" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="18424525" y="4933691"/>
-          <a:ext cx="2544234" cy="2737108"/>
+          <a:off x="19002188" y="4647941"/>
+          <a:ext cx="4012701" cy="4170838"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -8985"/>
+            <a:gd name="adj1" fmla="val -5697"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="38100">
@@ -3933,8 +3928,8 @@
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>582706</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>179295</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3949,8 +3944,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19980088" y="6734736"/>
-          <a:ext cx="403412" cy="302559"/>
+          <a:off x="20502282" y="6342530"/>
+          <a:ext cx="403412" cy="291353"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4065,6 +4060,621 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>552310</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23347AAE-DD0A-FD66-DF13-8BDC5FB42242}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2519082" y="10040471"/>
+          <a:ext cx="11041016" cy="6176682"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>550457</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>65119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>178650</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>111686</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Diamond 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4E59EB8-7A5C-FAA9-2387-25724A8F1134}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20873445" y="6878295"/>
+          <a:ext cx="847393" cy="943038"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>556558</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>145925</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>2800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Oval 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11050938-8731-2D94-099D-52DC8F8D53C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20879546" y="8419039"/>
+          <a:ext cx="808567" cy="727761"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800" b="1"/>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>351242</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>111686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>364554</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171510</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Connector: Elbow 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FB22C46-32C3-7CCD-7069-F5C81DBA2FE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="23" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="20991633" y="8113530"/>
+          <a:ext cx="597706" cy="13312"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 103995"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>375444</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>2800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>351242</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>108699</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Connector: Elbow 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F005816-3F7E-49A0-A1AD-901A19850D43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="23" idx="4"/>
+          <a:endCxn id="16" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="18822511" y="8584321"/>
+          <a:ext cx="1898840" cy="3023798"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 117652"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>364555</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>111685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>458819</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>28073</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Connector: Elbow 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D3A3386-3E7F-47F8-B333-1547EF9FD799}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="43" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="21637092" y="7481383"/>
+          <a:ext cx="633565" cy="1313464"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>54534</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>28074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>253501</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38659</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Oval 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E02DC0C3-7C6F-C7FF-E1E7-8C3081F8AAEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22206322" y="8454898"/>
+          <a:ext cx="808567" cy="727761"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800" b="1"/>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>555811</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>349623</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>134472</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="TextBox 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D22F7807-6BF4-5A5C-8069-51F17010AB5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22097999" y="7732060"/>
+          <a:ext cx="403412" cy="291353"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1"/>
+            <a:t>F</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>445994</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>239806</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>172571</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="TextBox 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1F39FAE-C7F9-8F0C-7AD1-4F2068737D89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20768982" y="7960659"/>
+          <a:ext cx="403412" cy="280147"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1"/>
+            <a:t>T</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>138953</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>165287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>367553</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>62193</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Rectangle 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADE77ADF-0271-3709-E379-1627171CE0DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22290741" y="9847169"/>
+          <a:ext cx="838200" cy="614083"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1"/>
+            <a:t>R5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4072,13 +4682,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>328083</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>77797</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>74084</xdr:rowOff>
@@ -4135,13 +4745,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>586317</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>74084</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>214510</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>120652</xdr:rowOff>
@@ -4198,13 +4808,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>306916</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>486834</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>42334</xdr:rowOff>
@@ -4261,13 +4871,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>321732</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>35983</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>501650</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>46567</xdr:rowOff>
@@ -4324,13 +4934,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>520699</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>37040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>110066</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
@@ -4391,13 +5001,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>510117</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>45507</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>99484</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>56091</xdr:rowOff>
@@ -4454,13 +5064,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>564093</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>70909</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>192285</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>117477</xdr:rowOff>
@@ -4517,13 +5127,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>270934</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>101599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>450851</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>112183</xdr:rowOff>
@@ -4580,13 +5190,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>42332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>433917</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>52916</xdr:rowOff>
@@ -4643,13 +5253,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>317501</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>63499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>74083</xdr:rowOff>
@@ -4706,13 +5316,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>311149</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>25399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>491066</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>35983</xdr:rowOff>
@@ -4769,13 +5379,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>100543</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>115359</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>35982</xdr:rowOff>
@@ -4828,13 +5438,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>116415</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>46567</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>122766</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>77797</xdr:rowOff>
@@ -4887,13 +5497,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>378190</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>74083</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>122768</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>70908</xdr:rowOff>
@@ -4946,13 +5556,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>122766</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>74084</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>400413</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>74084</xdr:rowOff>
@@ -5005,13 +5615,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>315383</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>120653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>400414</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>37041</xdr:rowOff>
@@ -5064,13 +5674,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>400414</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>120651</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>45506</xdr:rowOff>
@@ -5123,13 +5733,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>378188</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>117477</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>65617</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>101599</xdr:rowOff>
@@ -5182,13 +5792,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>270809</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>117477</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>366983</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>63499</xdr:rowOff>
@@ -5241,13 +5851,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>48685</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>112182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>65619</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>42331</xdr:rowOff>
@@ -5300,13 +5910,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>270808</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>74083</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>311148</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>30691</xdr:rowOff>
@@ -5357,13 +5967,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>48684</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>52915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>105833</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>25398</xdr:rowOff>
@@ -5416,13 +6026,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>171191</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>99484</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>50799</xdr:rowOff>
@@ -5475,13 +6085,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>491067</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>315384</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>30691</xdr:rowOff>
@@ -5532,13 +6142,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -5595,13 +6205,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -5658,13 +6268,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -5721,13 +6331,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -5784,13 +6394,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>89644</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>61922</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>380998</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>128868</xdr:rowOff>
@@ -5847,13 +6457,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>549088</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>358588</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
@@ -5918,13 +6528,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>51549</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>96371</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>454961</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>17930</xdr:rowOff>
@@ -5989,13 +6599,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>78441</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>481853</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
@@ -6060,13 +6670,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>403412</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
@@ -6131,13 +6741,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>179294</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>582706</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>179295</xdr:rowOff>
@@ -6202,13 +6812,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>201706</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>168088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
@@ -6570,26 +7180,26 @@
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="15" max="15" width="19.7109375" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="11"/>
-      <c r="D1" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B1" s="10"/>
+      <c r="D1" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="34" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>55</v>
       </c>
@@ -6599,96 +7209,96 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="32" t="s">
+      <c r="N5" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25" t="s">
+      <c r="N6" s="23"/>
+      <c r="O6" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="25" t="s">
+      <c r="P6" s="23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="N7" s="25" t="s">
+      <c r="N7" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="O7" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="P7" s="25">
+      <c r="O7" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" s="23">
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="N8" s="25" t="s">
+      <c r="N8" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="O8" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="P8" s="25">
+      <c r="O8" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" s="23">
         <v>235</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="N9" s="25" t="s">
+      <c r="N9" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="34" t="s">
-        <v>80</v>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
     </row>
   </sheetData>
@@ -6705,438 +7315,521 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:T54"/>
+  <dimension ref="B1:T86"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5:AL65"/>
+    <sheetView topLeftCell="L15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20:T20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B1" s="11"/>
-      <c r="D1" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B1" s="10"/>
+      <c r="D1" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B3" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="45"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="37" t="s">
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B6" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="I6" s="37" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="I6" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="Q6" s="37" t="s">
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="Q6" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="I8" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q8" s="42" t="s">
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="I8" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="32" t="s">
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B9" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="I9" s="35"/>
-      <c r="Q9" s="42" t="s">
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="I9" s="33"/>
+      <c r="Q9" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="32" t="s">
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B10" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="I10" s="46" t="s">
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="I10" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="48"/>
-      <c r="Q10" s="42" t="s">
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="52"/>
+      <c r="Q10" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="42" t="s">
+      <c r="R10" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="42"/>
-      <c r="T10" s="31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="32" t="s">
+      <c r="S10" s="59"/>
+      <c r="T10" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B11" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="51"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="32" t="s">
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="55"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B12" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="51"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="32" t="s">
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="55"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B13" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="51"/>
-      <c r="Q13" s="37" t="s">
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="55"/>
+      <c r="Q13" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="32" t="s">
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B14" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="51"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I15" s="49"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="51"/>
-      <c r="Q15" s="29" t="s">
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="55"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="I15" s="53"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="55"/>
+      <c r="Q15" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="55" t="s">
+      <c r="R15" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="55"/>
-      <c r="T15" s="55"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I16" s="49"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="51"/>
-      <c r="Q16" s="32" t="s">
+      <c r="S15" s="60"/>
+      <c r="T15" s="60"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="I16" s="53"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="55"/>
+      <c r="Q16" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="R16" s="40" t="s">
+      <c r="R16" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+    </row>
+    <row r="17" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I17" s="53"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="55"/>
+      <c r="Q17" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="R17" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+    </row>
+    <row r="18" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I18" s="53"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="55"/>
+      <c r="Q18" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="R18" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+    </row>
+    <row r="19" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I19" s="53"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="55"/>
+      <c r="Q19" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="R19" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+    </row>
+    <row r="20" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="55"/>
+      <c r="Q20" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-    </row>
-    <row r="17" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I17" s="49"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="51"/>
-      <c r="Q17" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="R17" s="40" t="s">
+      <c r="R20" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+    </row>
+    <row r="21" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I21" s="53"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="55"/>
+      <c r="Q21" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-    </row>
-    <row r="18" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I18" s="49"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="51"/>
-      <c r="Q18" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="R18" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-    </row>
-    <row r="19" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I19" s="49"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="51"/>
-      <c r="Q19" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="R19" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-    </row>
-    <row r="20" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I20" s="49"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="51"/>
-      <c r="Q20" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="R20" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-    </row>
-    <row r="21" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I21" s="49"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="51"/>
-      <c r="Q21" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="R21" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-    </row>
-    <row r="22" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I22" s="49"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="51"/>
-    </row>
-    <row r="23" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I23" s="49"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="51"/>
-      <c r="Q23" s="104" t="s">
-        <v>93</v>
-      </c>
-      <c r="R23" s="104"/>
-      <c r="S23" s="104"/>
-      <c r="T23" s="104"/>
-    </row>
-    <row r="24" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I24" s="52"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="54"/>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="R21" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+    </row>
+    <row r="22" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I22" s="53"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="55"/>
+      <c r="Q22" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="R22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="55"/>
+      <c r="Q23" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+    </row>
+    <row r="24" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I24" s="56"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="58"/>
+      <c r="Q24" s="30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D42" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D43" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D44" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D45" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D46" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D48" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D54" s="1"/>
     </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D72">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D76">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D84">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D86">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="24">
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="R18:T18"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="R21:T21"/>
@@ -7147,21 +7840,11 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="R15:T15"/>
     <mergeCell ref="C8:E8"/>
-    <mergeCell ref="Q23:T23"/>
     <mergeCell ref="Q8:S8"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="I6:O6"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="R17:T17"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="R18:T18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7174,530 +7857,692 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:AB36"/>
+  <dimension ref="B1:AD36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD26" sqref="AD26"/>
+    <sheetView topLeftCell="E2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" customWidth="1"/>
-    <col min="13" max="13" width="5" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" customWidth="1"/>
-    <col min="16" max="17" width="8.85546875" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" customWidth="1"/>
-    <col min="22" max="24" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="6.109375" customWidth="1"/>
+    <col min="13" max="13" width="6.44140625" customWidth="1"/>
+    <col min="14" max="14" width="5" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" customWidth="1"/>
+    <col min="17" max="18" width="8.88671875" customWidth="1"/>
+    <col min="23" max="23" width="9.109375" customWidth="1"/>
+    <col min="24" max="26" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="11"/>
-      <c r="D1" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
-    </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
+    <row r="1" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="E1" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B3" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45"/>
-    </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-    </row>
-    <row r="6" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="62" t="s">
+      <c r="C3" s="109"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="2:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="35"/>
+      <c r="D6" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="E6" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="F6" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="62"/>
-    </row>
-    <row r="7" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="59" t="s">
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
+    </row>
+    <row r="7" spans="2:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="61"/>
+      <c r="C7" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="61"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="G7" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="60" t="s">
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="61" t="s">
+      <c r="R7" s="65"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="65"/>
+      <c r="V7" s="65"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="61"/>
-      <c r="Z7" s="61"/>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="61"/>
-    </row>
-    <row r="8" spans="2:28" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="62"/>
-      <c r="C8" s="56" t="s">
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="64"/>
+      <c r="AB7" s="64"/>
+      <c r="AC7" s="64"/>
+      <c r="AD7" s="64"/>
+    </row>
+    <row r="8" spans="2:30" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="61"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="E8" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="60" t="s">
+      <c r="F8" s="69"/>
+      <c r="G8" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="Q8" s="60" t="s">
+      <c r="R8" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="R8" s="60" t="s">
+      <c r="S8" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="T8" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="U8" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="V8" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="W8" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="X8" s="64">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="64">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="64">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB8" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC8" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD8" s="64" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="61"/>
+      <c r="C9" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="64"/>
+      <c r="AC9" s="64"/>
+      <c r="AD9" s="64"/>
+    </row>
+    <row r="10" spans="2:30" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="S8" s="60" t="s">
+      <c r="G10" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="16">
+        <v>1</v>
+      </c>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+    </row>
+    <row r="11" spans="2:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16">
+        <v>1</v>
+      </c>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+    </row>
+    <row r="12" spans="2:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16">
+        <v>1</v>
+      </c>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="2:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16">
+        <v>1</v>
+      </c>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="2:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="T8" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="U8" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="V8" s="61">
-        <v>0</v>
-      </c>
-      <c r="W8" s="61">
+      <c r="G14" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16">
         <v>1</v>
       </c>
-      <c r="X8" s="61">
-        <v>2</v>
-      </c>
-      <c r="Y8" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z8" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA8" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB8" s="61" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="62"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="61"/>
-      <c r="Y9" s="61"/>
-      <c r="Z9" s="61"/>
-      <c r="AA9" s="61"/>
-      <c r="AB9" s="61"/>
-    </row>
-    <row r="10" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA14" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B15" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17">
+      <c r="G15" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16">
         <v>1</v>
       </c>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17">
+      <c r="W15" s="16"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA15" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="2:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="110" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="111" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q16">
         <v>1</v>
       </c>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-    </row>
-    <row r="11" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17">
-        <v>1</v>
-      </c>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
-    </row>
-    <row r="12" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="105" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="106" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="17">
-        <v>1</v>
-      </c>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-    </row>
-    <row r="13" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17">
-        <v>1</v>
-      </c>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17">
-        <v>1</v>
-      </c>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="18"/>
-    </row>
-    <row r="14" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="18"/>
-    </row>
-    <row r="15" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
-    </row>
-    <row r="16" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
-    </row>
-    <row r="21" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S21" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T36">
+    </row>
+    <row r="17" spans="3:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="113"/>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="U21" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C24" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="22:22" x14ac:dyDescent="0.3">
+      <c r="V36">
         <v>-10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:AB6"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="U8:U9"/>
+  <mergeCells count="31">
+    <mergeCell ref="T8:T9"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:P7"/>
+    <mergeCell ref="Q7:W7"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
     <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="V7:AB7"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="P8:P9"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="R8:R9"/>
     <mergeCell ref="S8:S9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:AD6"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="X7:AD7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7710,83 +8555,83 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:N18"/>
+  <dimension ref="B1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="11"/>
-      <c r="D1" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="90" t="s">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B1" s="10"/>
+      <c r="D1" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="91" t="s">
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="84" t="s">
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="85"/>
-    </row>
-    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="92"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="98"/>
+      <c r="L4" s="74"/>
+    </row>
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="72"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="2" t="s">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>1</v>
@@ -7794,10 +8639,10 @@
       <c r="H5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="86" t="s">
+      <c r="I5" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
@@ -7805,127 +8650,139 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20">
+    <row r="6" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="19">
         <v>9</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="77" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="21" t="s">
+      <c r="I6" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="83"/>
-      <c r="K6" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="20">
+      <c r="J6" s="85"/>
+      <c r="K6" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="19">
         <v>10</v>
       </c>
-      <c r="C7" s="93"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="20" t="s">
+      <c r="E7" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="84" t="s">
+      <c r="I7" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="85"/>
-      <c r="K7" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="20">
+      <c r="J7" s="74"/>
+      <c r="K7" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="19">
         <v>11</v>
       </c>
-      <c r="C8" s="93"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="20" t="s">
+      <c r="I8" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="85"/>
-      <c r="K8" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="L8" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="20">
+      <c r="J8" s="74"/>
+      <c r="K8" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="19">
         <v>12</v>
       </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-    </row>
-    <row r="10" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="77"/>
+      <c r="D9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
         <v>13</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>1</v>
+      <c r="C10" s="78"/>
+      <c r="D10" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>6</v>
@@ -7933,164 +8790,220 @@
       <c r="H10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="86" t="s">
+      <c r="I10" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="87"/>
+      <c r="J10" s="76"/>
       <c r="K10" s="2" t="s">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="D11" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="22"/>
-    </row>
-    <row r="13" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="99" t="s">
+      <c r="D12" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="114" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="101" t="s">
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="102"/>
-      <c r="H13" s="99" t="s">
+      <c r="G13" s="108"/>
+      <c r="H13" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="69" t="s">
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="N13" s="70"/>
-    </row>
-    <row r="14" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="68" t="s">
+      <c r="N13" s="96"/>
+    </row>
+    <row r="14" spans="2:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="74" t="s">
+      <c r="E14" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="76" t="s">
+      <c r="F14" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="78" t="s">
+      <c r="G14" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="80" t="s">
+      <c r="H14" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="72" t="s">
+      <c r="I14" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="72" t="s">
+      <c r="J14" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="88" t="s">
+      <c r="K14" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="65" t="s">
+      <c r="L14" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="M14" s="67" t="s">
+      <c r="M14" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="N14" s="79" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="71"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="76"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="25">
-        <v>3</v>
-      </c>
-      <c r="C16" s="23">
-        <v>2</v>
-      </c>
-      <c r="D16" s="23">
+      <c r="N14" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" s="105" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="97"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="106"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="23">
+        <v>7</v>
+      </c>
+      <c r="C16" s="21">
+        <v>6</v>
+      </c>
+      <c r="D16" s="21">
         <v>1</v>
       </c>
-      <c r="E16" s="108">
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="F16" s="24">
+      <c r="E16" s="41">
+        <v>1</v>
+      </c>
+      <c r="F16" s="22">
         <v>1</v>
       </c>
       <c r="G16" s="8">
         <v>1</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="I16" s="25">
+        <v>101</v>
+      </c>
+      <c r="I16" s="23">
         <v>1</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="21">
         <v>1</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="24">
         <v>0</v>
       </c>
-      <c r="L16" s="107">
+      <c r="L16" s="40">
         <v>1</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="N16" s="27">
-        <f>C16</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="N16" s="25">
+        <v>6</v>
+      </c>
+      <c r="O16" s="115">
+        <v>6</v>
+      </c>
+      <c r="P16" s="115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="33">
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M13:N13"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="B4:B5"/>
@@ -8105,23 +9018,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I8:J8"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8129,21 +9025,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -8287,24 +9168,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E53DB3A-2750-466D-B803-7A1FAB16D24B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8320,4 +9199,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>